--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Npy-Prlhr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Npy-Prlhr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,46 +537,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.472578</v>
+        <v>0.4700283333333333</v>
       </c>
       <c r="H2">
-        <v>4.417734</v>
+        <v>1.410085</v>
       </c>
       <c r="I2">
-        <v>0.8199988566099823</v>
+        <v>0.1029504401632623</v>
       </c>
       <c r="J2">
-        <v>0.8199988566099823</v>
+        <v>0.1029504401632623</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.07623333333333333</v>
+        <v>0.1615083333333333</v>
       </c>
       <c r="N2">
-        <v>0.2287</v>
+        <v>0.484525</v>
       </c>
       <c r="O2">
-        <v>0.722545178819664</v>
+        <v>0.8643002650740816</v>
       </c>
       <c r="P2">
-        <v>0.7225451788196638</v>
+        <v>0.8643002650740816</v>
       </c>
       <c r="Q2">
-        <v>0.1122595295333333</v>
+        <v>0.07591349273611112</v>
       </c>
       <c r="R2">
-        <v>1.0103357658</v>
+        <v>0.6832214346250001</v>
       </c>
       <c r="S2">
-        <v>0.5924862204811796</v>
+        <v>0.08898009272260096</v>
       </c>
       <c r="T2">
-        <v>0.5924862204811795</v>
+        <v>0.08898009272260095</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.472578</v>
+        <v>0.4700283333333333</v>
       </c>
       <c r="H3">
-        <v>4.417734</v>
+        <v>1.410085</v>
       </c>
       <c r="I3">
-        <v>0.8199988566099823</v>
+        <v>0.1029504401632623</v>
       </c>
       <c r="J3">
-        <v>0.8199988566099823</v>
+        <v>0.1029504401632623</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,25 +620,25 @@
         <v>0.023989</v>
       </c>
       <c r="N3">
-        <v>0.07196699999999999</v>
+        <v>0.071967</v>
       </c>
       <c r="O3">
-        <v>0.227369518513838</v>
+        <v>0.1283754133978359</v>
       </c>
       <c r="P3">
-        <v>0.227369518513838</v>
+        <v>0.1283754133978359</v>
       </c>
       <c r="Q3">
-        <v>0.035325673642</v>
+        <v>0.01127550968833333</v>
       </c>
       <c r="R3">
-        <v>0.317931062778</v>
+        <v>0.101479587195</v>
       </c>
       <c r="S3">
-        <v>0.1864427452093093</v>
+        <v>0.01321630531544796</v>
       </c>
       <c r="T3">
-        <v>0.1864427452093093</v>
+        <v>0.01321630531544796</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,51 +661,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.472578</v>
+        <v>0.4700283333333333</v>
       </c>
       <c r="H4">
-        <v>4.417734</v>
+        <v>1.410085</v>
       </c>
       <c r="I4">
-        <v>0.8199988566099823</v>
+        <v>0.1029504401632623</v>
       </c>
       <c r="J4">
-        <v>0.8199988566099823</v>
+        <v>0.1029504401632623</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.004536666666666667</v>
+        <v>0.001368666666666667</v>
       </c>
       <c r="N4">
-        <v>0.01361</v>
+        <v>0.004106</v>
       </c>
       <c r="O4">
-        <v>0.04299886263111337</v>
+        <v>0.007324321528082512</v>
       </c>
       <c r="P4">
-        <v>0.04299886263111336</v>
+        <v>0.007324321528082512</v>
       </c>
       <c r="Q4">
-        <v>0.006680595526666668</v>
+        <v>0.0006433121122222222</v>
       </c>
       <c r="R4">
-        <v>0.06012535974000001</v>
+        <v>0.005789809010000001</v>
       </c>
       <c r="S4">
-        <v>0.03525901819304265</v>
+        <v>0.0007540421252133523</v>
       </c>
       <c r="T4">
-        <v>0.03525901819304265</v>
+        <v>0.0007540421252133522</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -714,55 +714,55 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>4.095550333333333</v>
+      </c>
+      <c r="H5">
+        <v>12.286651</v>
+      </c>
+      <c r="I5">
+        <v>0.8970495598367377</v>
+      </c>
+      <c r="J5">
+        <v>0.8970495598367377</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G5">
-        <v>1.472578</v>
-      </c>
-      <c r="H5">
-        <v>4.417734</v>
-      </c>
-      <c r="I5">
-        <v>0.8199988566099823</v>
-      </c>
-      <c r="J5">
-        <v>0.8199988566099823</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.0007476666666666666</v>
+        <v>0.1615083333333333</v>
       </c>
       <c r="N5">
-        <v>0.002243</v>
+        <v>0.484525</v>
       </c>
       <c r="O5">
-        <v>0.00708644003538481</v>
+        <v>0.8643002650740816</v>
       </c>
       <c r="P5">
-        <v>0.00708644003538481</v>
+        <v>0.8643002650740816</v>
       </c>
       <c r="Q5">
-        <v>0.001100997484666667</v>
+        <v>0.6614655084194444</v>
       </c>
       <c r="R5">
-        <v>0.009908977361999999</v>
+        <v>5.953189575775</v>
       </c>
       <c r="S5">
-        <v>0.005810872726450747</v>
+        <v>0.7753201723514807</v>
       </c>
       <c r="T5">
-        <v>0.005810872726450747</v>
+        <v>0.7753201723514807</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,25 +776,25 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G6">
-        <v>0.3232513333333334</v>
+        <v>4.095550333333333</v>
       </c>
       <c r="H6">
-        <v>0.9697540000000001</v>
+        <v>12.286651</v>
       </c>
       <c r="I6">
-        <v>0.1800011433900178</v>
+        <v>0.8970495598367377</v>
       </c>
       <c r="J6">
-        <v>0.1800011433900178</v>
+        <v>0.8970495598367377</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.07623333333333333</v>
+        <v>0.023989</v>
       </c>
       <c r="N6">
-        <v>0.2287</v>
+        <v>0.071967</v>
       </c>
       <c r="O6">
-        <v>0.722545178819664</v>
+        <v>0.1283754133978359</v>
       </c>
       <c r="P6">
-        <v>0.7225451788196638</v>
+        <v>0.1283754133978359</v>
       </c>
       <c r="Q6">
-        <v>0.02464252664444445</v>
+        <v>0.09824815694633332</v>
       </c>
       <c r="R6">
-        <v>0.2217827398</v>
+        <v>0.8842334125169999</v>
       </c>
       <c r="S6">
-        <v>0.1300589583384844</v>
+        <v>0.1151591080823879</v>
       </c>
       <c r="T6">
-        <v>0.1300589583384844</v>
+        <v>0.1151591080823879</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,25 +838,25 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G7">
-        <v>0.3232513333333334</v>
+        <v>4.095550333333333</v>
       </c>
       <c r="H7">
-        <v>0.9697540000000001</v>
+        <v>12.286651</v>
       </c>
       <c r="I7">
-        <v>0.1800011433900178</v>
+        <v>0.8970495598367377</v>
       </c>
       <c r="J7">
-        <v>0.1800011433900178</v>
+        <v>0.8970495598367377</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -865,152 +865,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.023989</v>
+        <v>0.001368666666666667</v>
       </c>
       <c r="N7">
-        <v>0.07196699999999999</v>
+        <v>0.004106</v>
       </c>
       <c r="O7">
-        <v>0.227369518513838</v>
+        <v>0.007324321528082512</v>
       </c>
       <c r="P7">
-        <v>0.227369518513838</v>
+        <v>0.007324321528082512</v>
       </c>
       <c r="Q7">
-        <v>0.007754476235333333</v>
+        <v>0.005605443222888888</v>
       </c>
       <c r="R7">
-        <v>0.06979028611799999</v>
+        <v>0.050448989006</v>
       </c>
       <c r="S7">
-        <v>0.04092677330452865</v>
+        <v>0.006570279402869159</v>
       </c>
       <c r="T7">
-        <v>0.04092677330452864</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.3232513333333334</v>
-      </c>
-      <c r="H8">
-        <v>0.9697540000000001</v>
-      </c>
-      <c r="I8">
-        <v>0.1800011433900178</v>
-      </c>
-      <c r="J8">
-        <v>0.1800011433900178</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>0.004536666666666667</v>
-      </c>
-      <c r="N8">
-        <v>0.01361</v>
-      </c>
-      <c r="O8">
-        <v>0.04299886263111337</v>
-      </c>
-      <c r="P8">
-        <v>0.04299886263111336</v>
-      </c>
-      <c r="Q8">
-        <v>0.001466483548888889</v>
-      </c>
-      <c r="R8">
-        <v>0.01319835194</v>
-      </c>
-      <c r="S8">
-        <v>0.007739844438070714</v>
-      </c>
-      <c r="T8">
-        <v>0.007739844438070713</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.3232513333333334</v>
-      </c>
-      <c r="H9">
-        <v>0.9697540000000001</v>
-      </c>
-      <c r="I9">
-        <v>0.1800011433900178</v>
-      </c>
-      <c r="J9">
-        <v>0.1800011433900178</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.0007476666666666666</v>
-      </c>
-      <c r="N9">
-        <v>0.002243</v>
-      </c>
-      <c r="O9">
-        <v>0.00708644003538481</v>
-      </c>
-      <c r="P9">
-        <v>0.00708644003538481</v>
-      </c>
-      <c r="Q9">
-        <v>0.0002416842468888889</v>
-      </c>
-      <c r="R9">
-        <v>0.002175158222</v>
-      </c>
-      <c r="S9">
-        <v>0.001275567308934064</v>
-      </c>
-      <c r="T9">
-        <v>0.001275567308934064</v>
+        <v>0.006570279402869159</v>
       </c>
     </row>
   </sheetData>
